--- a/year 1 sem 2 Applied Informatics/u8/otchet8.xlsx
+++ b/year 1 sem 2 Applied Informatics/u8/otchet8.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\programming\tu-sofia\year 1 sem 2 Applied Informatics\u8\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC2008C-0393-44B5-A4BD-0FE47A878EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Пореден Номер</t>
   </si>
@@ -48,22 +42,16 @@
     <t>Задачи</t>
   </si>
   <si>
-    <t>exercise1</t>
-  </si>
-  <si>
     <t>16:45 - 19:30</t>
   </si>
   <si>
-    <t>ex1_119</t>
-  </si>
-  <si>
-    <t>Задача 1 на 119 страница от ръководството</t>
+    <t>git, github and chatGPT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,18 +389,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,17 +432,13 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -523,10 +507,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{BC6EFBFC-AD8E-4FF3-A2C0-2502ABDD49B2}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>